--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hurtja/Documents/Fall2019/SupervisedLearning/DNN-RS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB57C8E-D0DA-4445-AF7A-0607B27E34C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0713E64B-27FA-674A-91BD-6F5CEC7B6888}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="55280" yWindow="4500" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{55785084-E7D0-9E40-882E-FDFA09181DD6}"/>
+    <workbookView xWindow="1820" yWindow="2700" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{55785084-E7D0-9E40-882E-FDFA09181DD6}"/>
   </bookViews>
   <sheets>
     <sheet name="UCM" sheetId="1" r:id="rId1"/>
@@ -463,7 +463,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H23"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -565,7 +565,7 @@
         <v>14</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -748,7 +748,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:D21"/>
+      <selection activeCell="G13" sqref="G13:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -805,6 +805,15 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
+      <c r="B6">
+        <v>143.42608537000999</v>
+      </c>
+      <c r="C6">
+        <v>8.8832819927011003E-2</v>
+      </c>
+      <c r="D6">
+        <v>0.97174603174603102</v>
+      </c>
       <c r="G6" t="s">
         <v>11</v>
       </c>
@@ -816,6 +825,15 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
+      <c r="B7">
+        <v>143.85543215891801</v>
+      </c>
+      <c r="C7">
+        <v>7.8710013302752194E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.97593650793650699</v>
+      </c>
       <c r="G7" t="s">
         <v>12</v>
       </c>
@@ -835,17 +853,17 @@
       <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="e">
+      <c r="B9">
         <f>AVERAGE(B6:B7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C9" t="e">
+        <v>143.64075876446401</v>
+      </c>
+      <c r="C9">
         <f t="shared" ref="C9:D9" si="0">AVERAGE(C6:C7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D9" s="4" t="e">
+        <v>8.3771416614881605E-2</v>
+      </c>
+      <c r="D9" s="4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.97384126984126906</v>
       </c>
       <c r="G9" t="s">
         <v>15</v>
@@ -888,27 +906,45 @@
       <c r="A13" t="s">
         <v>5</v>
       </c>
+      <c r="B13">
+        <v>218.71668514295001</v>
+      </c>
+      <c r="C13">
+        <v>4.1701368287886398E-2</v>
+      </c>
+      <c r="D13">
+        <v>0.98869841269841197</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
+      <c r="B14">
+        <v>217.143963020993</v>
+      </c>
+      <c r="C14">
+        <v>3.2198057287765001E-2</v>
+      </c>
+      <c r="D14">
+        <v>0.99060317460317404</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" t="e">
+      <c r="B16">
         <f>AVERAGE(B13:B14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C16" t="e">
-        <f t="shared" ref="C16:D16" si="1">AVERAGE(C13:C14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D16" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>217.93032408197149</v>
+      </c>
+      <c r="C16">
+        <f>AVERAGE(C13:C14)</f>
+        <v>3.6949712787825703E-2</v>
+      </c>
+      <c r="D16" s="4">
+        <f>AVERAGE(D13:D14)</f>
+        <v>0.989650793650793</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -952,11 +988,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C23" t="e">
-        <f t="shared" ref="C23:D23" si="2">AVERAGE(C20:C21)</f>
+        <f t="shared" ref="C23:D23" si="1">AVERAGE(C20:C21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D23" s="4" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hurtja/Documents/Fall2019/SupervisedLearning/DNN-RS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0713E64B-27FA-674A-91BD-6F5CEC7B6888}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3C4EB9-6B4B-EF42-94E9-594831AB8A82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="2700" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{55785084-E7D0-9E40-882E-FDFA09181DD6}"/>
+    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="22220" activeTab="1" xr2:uid="{55785084-E7D0-9E40-882E-FDFA09181DD6}"/>
   </bookViews>
   <sheets>
     <sheet name="UCM" sheetId="1" r:id="rId1"/>
     <sheet name="R45" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="21">
   <si>
     <t>time</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Avg</t>
+  </si>
+  <si>
+    <t>Testing</t>
   </si>
 </sst>
 </file>
@@ -141,10 +144,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C794989-9AE3-C04D-8BB2-C1CFA1DCDB5B}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="I1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -472,35 +475,55 @@
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="K1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="K4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -519,8 +542,17 @@
       <c r="H5">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -539,8 +571,17 @@
       <c r="H6">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>9.2799999999999994E-2</v>
+      </c>
+      <c r="N6">
+        <v>0.97050000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -559,8 +600,17 @@
       <c r="H7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7">
+        <v>0.1759</v>
+      </c>
+      <c r="N7">
+        <v>0.9476</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G8" t="s">
         <v>14</v>
       </c>
@@ -568,7 +618,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -580,7 +630,7 @@
         <f t="shared" ref="C9:D9" si="0">AVERAGE(C6:C7)</f>
         <v>3.5346254226610453E-2</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <f t="shared" si="0"/>
         <v>0.99142857142857099</v>
       </c>
@@ -590,8 +640,19 @@
       <c r="H9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9">
+        <f>AVERAGE(M6:M7)</f>
+        <v>0.13435</v>
+      </c>
+      <c r="N9" s="3">
+        <f>AVERAGE(N6:N7)</f>
+        <v>0.95904999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G10" t="s">
         <v>17</v>
       </c>
@@ -599,15 +660,21 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -620,8 +687,17 @@
       <c r="D12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" t="s">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -634,8 +710,17 @@
       <c r="D13">
         <v>0.99904761904761896</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M13">
+        <v>0.21010000000000001</v>
+      </c>
+      <c r="N13">
+        <v>0.94379999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -648,8 +733,17 @@
       <c r="D14">
         <v>0.99809523809523804</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K14" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14">
+        <v>0.1142</v>
+      </c>
+      <c r="N14">
+        <v>0.96760000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -661,20 +755,37 @@
         <f t="shared" ref="C16:D16" si="1">AVERAGE(C13:C14)</f>
         <v>1.1280425584338824E-2</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <f t="shared" si="1"/>
         <v>0.99857142857142844</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="K16" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16">
+        <f>AVERAGE(M13:M14)</f>
+        <v>0.16215000000000002</v>
+      </c>
+      <c r="N16" s="3">
+        <f>AVERAGE(N13:N14)</f>
+        <v>0.95569999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="K18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -687,8 +798,17 @@
       <c r="D19" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K19" t="s">
+        <v>4</v>
+      </c>
+      <c r="M19" t="s">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -701,8 +821,17 @@
       <c r="D20">
         <v>0.99809523809523804</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K20" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20">
+        <v>3.2629999999999999</v>
+      </c>
+      <c r="N20">
+        <v>0.92669999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -715,8 +844,17 @@
       <c r="D21">
         <v>0.99904761904761896</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K21" t="s">
+        <v>6</v>
+      </c>
+      <c r="M21">
+        <v>0.67</v>
+      </c>
+      <c r="N21">
+        <v>0.94189999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -728,16 +866,31 @@
         <f t="shared" ref="C23:D23" si="2">AVERAGE(C20:C21)</f>
         <v>1.27900935600116E-2</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <f t="shared" si="2"/>
         <v>0.99857142857142844</v>
       </c>
+      <c r="K23" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23">
+        <f>AVERAGE(M20:M21)</f>
+        <v>1.9664999999999999</v>
+      </c>
+      <c r="N23" s="3">
+        <f>AVERAGE(N20:N21)</f>
+        <v>0.93429999999999991</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="A4:D4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K1:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -745,43 +898,63 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371994C7-003C-964A-9236-ADA3AE12ED0C}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:J18"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="156" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="K1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="K4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -800,8 +973,17 @@
       <c r="H5">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -820,8 +1002,17 @@
       <c r="H6">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>0.34379999999999999</v>
+      </c>
+      <c r="N6">
+        <v>0.90980000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -840,8 +1031,17 @@
       <c r="H7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7">
+        <v>0.39389999999999997</v>
+      </c>
+      <c r="N7">
+        <v>0.89970000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G8" t="s">
         <v>14</v>
       </c>
@@ -849,7 +1049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -861,7 +1061,7 @@
         <f t="shared" ref="C9:D9" si="0">AVERAGE(C6:C7)</f>
         <v>8.3771416614881605E-2</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <f t="shared" si="0"/>
         <v>0.97384126984126906</v>
       </c>
@@ -871,8 +1071,19 @@
       <c r="H9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9">
+        <f>AVERAGE(M6:M7)</f>
+        <v>0.36885000000000001</v>
+      </c>
+      <c r="N9" s="3">
+        <f>AVERAGE(N6:N7)</f>
+        <v>0.90475000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G10" t="s">
         <v>17</v>
       </c>
@@ -880,15 +1091,21 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -901,8 +1118,17 @@
       <c r="D12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" t="s">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -915,8 +1141,17 @@
       <c r="D13">
         <v>0.98869841269841197</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M13">
+        <v>0.34849999999999998</v>
+      </c>
+      <c r="N13">
+        <v>0.92230000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -929,8 +1164,17 @@
       <c r="D14">
         <v>0.99060317460317404</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K14" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14">
+        <v>0.31230000000000002</v>
+      </c>
+      <c r="N14">
+        <v>0.92859999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -942,20 +1186,37 @@
         <f>AVERAGE(C13:C14)</f>
         <v>3.6949712787825703E-2</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <f>AVERAGE(D13:D14)</f>
         <v>0.989650793650793</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="K16" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16">
+        <f>AVERAGE(M13:M14)</f>
+        <v>0.33040000000000003</v>
+      </c>
+      <c r="N16" s="3">
+        <f>AVERAGE(N13:N14)</f>
+        <v>0.92544999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="K18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -968,39 +1229,99 @@
       <c r="D19" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K19" t="s">
+        <v>4</v>
+      </c>
+      <c r="M19" t="s">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>336.29588151210902</v>
+      </c>
+      <c r="C20">
+        <v>4.0587363136828203E-2</v>
+      </c>
+      <c r="D20">
+        <v>0.98831746031746004</v>
+      </c>
+      <c r="K20" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20">
+        <v>0.58760000000000001</v>
+      </c>
+      <c r="N20">
+        <v>0.90180000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>331.97806654893702</v>
+      </c>
+      <c r="C21">
+        <v>4.4962382611586901E-2</v>
+      </c>
+      <c r="D21">
+        <v>0.98812698412698396</v>
+      </c>
+      <c r="K21" t="s">
+        <v>6</v>
+      </c>
+      <c r="M21">
+        <v>1.2333000000000001</v>
+      </c>
+      <c r="N21">
+        <v>0.90039999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>19</v>
       </c>
-      <c r="B23" t="e">
+      <c r="B23">
         <f>AVERAGE(B20:B21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C23" t="e">
-        <f t="shared" ref="C23:D23" si="1">AVERAGE(C20:C21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D23" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>334.13697403052299</v>
+      </c>
+      <c r="C23">
+        <f>AVERAGE(C20:C21)</f>
+        <v>4.2774872874207552E-2</v>
+      </c>
+      <c r="D23" s="3">
+        <f>AVERAGE(D20:D21)</f>
+        <v>0.988222222222222</v>
+      </c>
+      <c r="K23" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23">
+        <f>AVERAGE(M20:M21)</f>
+        <v>0.91044999999999998</v>
+      </c>
+      <c r="N23" s="3">
+        <f>AVERAGE(N20:N21)</f>
+        <v>0.90110000000000001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A18:D18"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K1:N3"/>
+    <mergeCell ref="K11:N11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
